--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Airports</t>
   </si>
@@ -113,25 +113,55 @@
     <t>Incident_Reports</t>
   </si>
   <si>
-    <t>Emp_Filed</t>
-  </si>
-  <si>
-    <t>Emp_Reported</t>
-  </si>
-  <si>
     <t>Inc_Type</t>
   </si>
   <si>
     <t>Inc_Desc</t>
   </si>
   <si>
-    <t>Date_filed</t>
-  </si>
-  <si>
     <t>FAA_Abbr</t>
   </si>
   <si>
     <t>FAA_Num</t>
+  </si>
+  <si>
+    <t>1…1</t>
+  </si>
+  <si>
+    <t>0…*</t>
+  </si>
+  <si>
+    <t>1…*</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>F_Date</t>
+  </si>
+  <si>
+    <t>F_Length</t>
+  </si>
+  <si>
+    <t>0…1</t>
+  </si>
+  <si>
+    <t>Date_Filed</t>
+  </si>
+  <si>
+    <t>Filed_ID</t>
+  </si>
+  <si>
+    <t>Reported_ID</t>
+  </si>
+  <si>
+    <t>Arr_Port</t>
+  </si>
+  <si>
+    <t>Dept_Port</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
   </si>
 </sst>
 </file>
@@ -173,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -237,11 +267,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +323,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -273,6 +358,881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612322</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1805214" y="1735667"/>
+          <a:ext cx="2426608" cy="1143000"/>
+          <a:chOff x="1809750" y="1741714"/>
+          <a:chExt cx="2435679" cy="1143000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Connector 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="1741714"/>
+            <a:ext cx="0" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Connector 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="2313214"/>
+            <a:ext cx="2435679" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="Straight Connector 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4245429" y="2313214"/>
+            <a:ext cx="0" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4218214" y="4402667"/>
+          <a:ext cx="3660322" cy="571500"/>
+          <a:chOff x="4231821" y="4408714"/>
+          <a:chExt cx="3673929" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="Straight Connector 21"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231821" y="4408714"/>
+            <a:ext cx="0" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Straight Connector 23"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4231821" y="4694464"/>
+            <a:ext cx="3660322" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Straight Connector 27"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7905750" y="4694464"/>
+            <a:ext cx="0" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619881</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="Group 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5445881" y="4688417"/>
+          <a:ext cx="3604381" cy="1428750"/>
+          <a:chOff x="5464069" y="4694464"/>
+          <a:chExt cx="3617830" cy="1428750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Straight Connector 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5464069" y="4694464"/>
+            <a:ext cx="0" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Straight Connector 32"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5468622" y="5742214"/>
+            <a:ext cx="3611760" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Straight Connector 34"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9081899" y="5742214"/>
+            <a:ext cx="0" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="Group 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1805214" y="9178774"/>
+          <a:ext cx="2433411" cy="748393"/>
+          <a:chOff x="1808389" y="9176657"/>
+          <a:chExt cx="2439761" cy="748393"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="Straight Connector 37"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1808389" y="9176657"/>
+            <a:ext cx="0" cy="367393"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="Straight Connector 41"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="9544050"/>
+            <a:ext cx="2428875" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Straight Connector 43"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="9553575"/>
+            <a:ext cx="0" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="Group 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1806575" y="9546167"/>
+          <a:ext cx="2432050" cy="1714500"/>
+          <a:chOff x="1809750" y="9544050"/>
+          <a:chExt cx="2438400" cy="1714500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="Straight Connector 48"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="9544050"/>
+            <a:ext cx="0" cy="1333500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="Straight Connector 51"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="10877550"/>
+            <a:ext cx="2438400" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="Straight Connector 53"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="10877550"/>
+            <a:ext cx="0" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607483</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="Group 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4222750" y="11832167"/>
+          <a:ext cx="2417233" cy="762000"/>
+          <a:chOff x="4222750" y="11832167"/>
+          <a:chExt cx="2417233" cy="762000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="Straight Connector 57"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4222750" y="11832167"/>
+            <a:ext cx="0" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="Straight Connector 59"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4222750" y="12213167"/>
+            <a:ext cx="2413000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="Straight Connector 61"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5429250" y="12223750"/>
+            <a:ext cx="0" cy="370417"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="Straight Connector 62"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6639983" y="12217400"/>
+            <a:ext cx="0" cy="370417"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618066</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="Group 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1809750" y="3450167"/>
+          <a:ext cx="2427816" cy="2667000"/>
+          <a:chOff x="1809750" y="3450167"/>
+          <a:chExt cx="2427816" cy="2667000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="Straight Connector 66"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="3450167"/>
+            <a:ext cx="0" cy="1915583"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="Straight Connector 68"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="5365750"/>
+            <a:ext cx="2423583" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="Straight Connector 70"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3026833" y="5376333"/>
+            <a:ext cx="0" cy="740834"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="Straight Connector 71"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4237566" y="5369983"/>
+            <a:ext cx="0" cy="740834"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +1513,7 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -564,6 +1525,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -574,7 +1545,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -591,6 +1562,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -612,6 +1588,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -645,15 +1631,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
@@ -664,12 +1706,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>24</v>
       </c>
@@ -677,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>25</v>
       </c>
@@ -688,12 +1730,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>27</v>
       </c>
@@ -701,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>22</v>
       </c>
@@ -712,12 +1764,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
@@ -725,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>22</v>
       </c>
@@ -736,15 +1793,28 @@
         <v>23</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
         <v>28</v>
       </c>
@@ -755,32 +1825,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D69:F69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Airports</t>
   </si>
@@ -161,7 +161,7 @@
     <t>Dept_Port</t>
   </si>
   <si>
-    <t>Timestamp</t>
+    <t>Time_Stamp</t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,8 +379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1805214" y="1735667"/>
-          <a:ext cx="2426608" cy="1143000"/>
+          <a:off x="1813152" y="1714500"/>
+          <a:ext cx="2442483" cy="1143000"/>
           <a:chOff x="1809750" y="1741714"/>
           <a:chExt cx="2435679" cy="1143000"/>
         </a:xfrm>
@@ -498,8 +495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4218214" y="4402667"/>
-          <a:ext cx="3660322" cy="571500"/>
+          <a:off x="4242027" y="4381500"/>
+          <a:ext cx="3684134" cy="571500"/>
           <a:chOff x="4231821" y="4408714"/>
           <a:chExt cx="3673929" cy="571500"/>
         </a:xfrm>
@@ -614,8 +611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5445881" y="4688417"/>
-          <a:ext cx="3604381" cy="1428750"/>
+          <a:off x="5477631" y="4667250"/>
+          <a:ext cx="3628194" cy="1428750"/>
           <a:chOff x="5464069" y="4694464"/>
           <a:chExt cx="3617830" cy="1428750"/>
         </a:xfrm>
@@ -730,8 +727,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1805214" y="9178774"/>
-          <a:ext cx="2433411" cy="748393"/>
+          <a:off x="1813152" y="9157607"/>
+          <a:ext cx="2449286" cy="748393"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
         </a:xfrm>
@@ -846,8 +843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1806575" y="9546167"/>
-          <a:ext cx="2432050" cy="1714500"/>
+          <a:off x="1814513" y="9525000"/>
+          <a:ext cx="2447925" cy="1714500"/>
           <a:chOff x="1809750" y="9544050"/>
           <a:chExt cx="2438400" cy="1714500"/>
         </a:xfrm>
@@ -962,8 +959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4222750" y="11832167"/>
-          <a:ext cx="2417233" cy="762000"/>
+          <a:off x="4246563" y="11811000"/>
+          <a:ext cx="2433108" cy="762000"/>
           <a:chOff x="4222750" y="11832167"/>
           <a:chExt cx="2417233" cy="762000"/>
         </a:xfrm>
@@ -1107,8 +1104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1809750" y="3450167"/>
-          <a:ext cx="2427816" cy="2667000"/>
+          <a:off x="1817688" y="3429000"/>
+          <a:ext cx="2443691" cy="2667000"/>
           <a:chOff x="1809750" y="3450167"/>
           <a:chExt cx="2427816" cy="2667000"/>
         </a:xfrm>
@@ -1500,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,10 +1677,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1843,11 +1837,11 @@
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Airports</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Attndt_Qty</t>
   </si>
   <si>
-    <t>Crew_ID</t>
-  </si>
-  <si>
     <t>FlightCrew</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>Time_Stamp</t>
+  </si>
+  <si>
+    <t>Crew_Num</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>C_Type</t>
   </si>
 </sst>
 </file>
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +344,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,7 +391,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1813152" y="1714500"/>
+          <a:off x="1813152" y="1738313"/>
           <a:ext cx="2442483" cy="1143000"/>
           <a:chOff x="1809750" y="1741714"/>
           <a:chExt cx="2435679" cy="1143000"/>
@@ -495,7 +507,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4242027" y="4381500"/>
+          <a:off x="4242027" y="4405313"/>
           <a:ext cx="3684134" cy="571500"/>
           <a:chOff x="4231821" y="4408714"/>
           <a:chExt cx="3673929" cy="571500"/>
@@ -611,7 +623,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5477631" y="4667250"/>
+          <a:off x="5477631" y="4691063"/>
           <a:ext cx="3628194" cy="1428750"/>
           <a:chOff x="5464069" y="4694464"/>
           <a:chExt cx="3617830" cy="1428750"/>
@@ -727,7 +739,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1813152" y="9157607"/>
+          <a:off x="1813152" y="9181420"/>
           <a:ext cx="2449286" cy="748393"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
@@ -843,7 +855,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1814513" y="9525000"/>
+          <a:off x="1814513" y="9548813"/>
           <a:ext cx="2447925" cy="1714500"/>
           <a:chOff x="1809750" y="9544050"/>
           <a:chExt cx="2438400" cy="1714500"/>
@@ -959,7 +971,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4246563" y="11811000"/>
+          <a:off x="4246563" y="11834813"/>
           <a:ext cx="2433108" cy="762000"/>
           <a:chOff x="4222750" y="11832167"/>
           <a:chExt cx="2417233" cy="762000"/>
@@ -1104,7 +1116,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1817688" y="3429000"/>
+          <a:off x="1817688" y="3452813"/>
           <a:ext cx="2443691" cy="2667000"/>
           <a:chOff x="1809750" y="3450167"/>
           <a:chExt cx="2427816" cy="2667000"/>
@@ -1206,6 +1218,282 @@
           <a:xfrm flipV="1">
             <a:off x="4237566" y="5369983"/>
             <a:ext cx="0" cy="740834"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10322719" y="6691312"/>
+          <a:ext cx="0" cy="773907"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7905750" y="8036719"/>
+          <a:ext cx="2452687" cy="3226593"/>
+          <a:chOff x="7905750" y="8036719"/>
+          <a:chExt cx="2452687" cy="3226593"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Straight Connector 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7905750" y="9358312"/>
+            <a:ext cx="0" cy="1905000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Connector 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7905750" y="9358312"/>
+            <a:ext cx="2452687" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Straight Connector 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10346531" y="8036719"/>
+            <a:ext cx="0" cy="1321593"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627630</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>188799</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1821657" y="6703219"/>
+          <a:ext cx="2449286" cy="748393"/>
+          <a:chOff x="1808389" y="9176657"/>
+          <a:chExt cx="2439761" cy="748393"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="Straight Connector 44"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1808389" y="9176657"/>
+            <a:ext cx="0" cy="367393"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="Straight Connector 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1809750" y="9544050"/>
+            <a:ext cx="2428875" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="Straight Connector 47"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4248150" y="9553575"/>
+            <a:ext cx="0" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -1497,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,12 +1812,12 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -1542,7 +1830,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -1561,7 +1849,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1587,12 +1875,12 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1630,18 +1918,18 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -1653,164 +1941,212 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+      <c r="I35" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="I40" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="3" t="s">
+      <c r="I41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D52" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D59" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D63" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E66" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>5</v>
@@ -1821,19 +2157,19 @@
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">

--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -146,12 +146,6 @@
     <t>Date_Filed</t>
   </si>
   <si>
-    <t>Filed_ID</t>
-  </si>
-  <si>
-    <t>Reported_ID</t>
-  </si>
-  <si>
     <t>Arr_Port</t>
   </si>
   <si>
@@ -168,14 +162,28 @@
   </si>
   <si>
     <t>C_Type</t>
+  </si>
+  <si>
+    <t>Filed_FAA</t>
+  </si>
+  <si>
+    <t>Reported_FAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -314,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +345,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,12 +361,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -375,13 +386,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -391,7 +402,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1813152" y="1738313"/>
+          <a:off x="1813152" y="976313"/>
           <a:ext cx="2442483" cy="1143000"/>
           <a:chOff x="1809750" y="1741714"/>
           <a:chExt cx="2435679" cy="1143000"/>
@@ -491,13 +502,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -507,7 +518,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4242027" y="4405313"/>
+          <a:off x="4242027" y="3643313"/>
           <a:ext cx="3684134" cy="571500"/>
           <a:chOff x="4231821" y="4408714"/>
           <a:chExt cx="3673929" cy="571500"/>
@@ -607,13 +618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619881</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>604762</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -623,7 +634,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5477631" y="4691063"/>
+          <a:off x="5477631" y="3929063"/>
           <a:ext cx="3628194" cy="1428750"/>
           <a:chOff x="5464069" y="4694464"/>
           <a:chExt cx="3617830" cy="1428750"/>
@@ -723,13 +734,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -739,7 +750,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1813152" y="9181420"/>
+          <a:off x="1813152" y="8419420"/>
           <a:ext cx="2449286" cy="748393"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
@@ -839,13 +850,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -855,7 +866,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1814513" y="9548813"/>
+          <a:off x="1814513" y="8786813"/>
           <a:ext cx="2447925" cy="1714500"/>
           <a:chOff x="1809750" y="9544050"/>
           <a:chExt cx="2438400" cy="1714500"/>
@@ -953,160 +964,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>607483</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="Group 63"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4246563" y="11834813"/>
-          <a:ext cx="2433108" cy="762000"/>
-          <a:chOff x="4222750" y="11832167"/>
-          <a:chExt cx="2417233" cy="762000"/>
+          <a:off x="6675438" y="11834813"/>
+          <a:ext cx="0" cy="381000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="Straight Connector 57"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4222750" y="11832167"/>
-            <a:ext cx="0" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="60" name="Straight Connector 59"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4222750" y="12213167"/>
-            <a:ext cx="2413000" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="62" name="Straight Connector 61"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5429250" y="12223750"/>
-            <a:ext cx="0" cy="370417"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="63" name="Straight Connector 62"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6639983" y="12217400"/>
-            <a:ext cx="0" cy="370417"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603222</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5464969" y="12215812"/>
+          <a:ext cx="1210441" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603237</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603237</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5460987" y="12226396"/>
+          <a:ext cx="0" cy="370417"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607483</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607483</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6679671" y="12220046"/>
+          <a:ext cx="0" cy="370417"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>618066</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1116,7 +1158,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1817688" y="3452813"/>
+          <a:off x="1817688" y="2690813"/>
           <a:ext cx="2443691" cy="2667000"/>
           <a:chOff x="1809750" y="3450167"/>
           <a:chExt cx="2427816" cy="2667000"/>
@@ -1245,13 +1287,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1289,13 +1331,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1305,7 +1347,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7905750" y="8036719"/>
+          <a:off x="7905750" y="7274719"/>
           <a:ext cx="2452687" cy="3226593"/>
           <a:chOff x="7905750" y="8036719"/>
           <a:chExt cx="2452687" cy="3226593"/>
@@ -1405,13 +1447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>627630</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>188799</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1421,7 +1463,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1821657" y="6703219"/>
+          <a:off x="1821657" y="5941219"/>
           <a:ext cx="2449286" cy="748393"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
@@ -1783,10 +1825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:K69"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,397 +1839,398 @@
     <col min="1" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G26" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="3" t="s">
+      <c r="H36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>34</v>
+      <c r="I38" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="I39" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="12" t="s">
+      <c r="F64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I43" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D52" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="10"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D65:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -38,9 +38,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Reported_FAA</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -403,7 +403,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1813152" y="976313"/>
-          <a:ext cx="2442483" cy="1143000"/>
+          <a:ext cx="2442483" cy="571500"/>
           <a:chOff x="1809750" y="1741714"/>
           <a:chExt cx="2435679" cy="1143000"/>
         </a:xfrm>
@@ -502,13 +502,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -518,7 +518,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4242027" y="3643313"/>
+          <a:off x="4242027" y="3071813"/>
           <a:ext cx="3684134" cy="571500"/>
           <a:chOff x="4231821" y="4408714"/>
           <a:chExt cx="3673929" cy="571500"/>
@@ -618,13 +618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>619881</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>604762</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -634,8 +634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5477631" y="3929063"/>
-          <a:ext cx="3628194" cy="1428750"/>
+          <a:off x="5477631" y="3357563"/>
+          <a:ext cx="3628194" cy="1238250"/>
           <a:chOff x="5464069" y="4694464"/>
           <a:chExt cx="3617830" cy="1428750"/>
         </a:xfrm>
@@ -734,13 +734,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -750,8 +750,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1813152" y="8419420"/>
-          <a:ext cx="2449286" cy="748393"/>
+          <a:off x="1813152" y="7276420"/>
+          <a:ext cx="2449286" cy="557893"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
         </a:xfrm>
@@ -849,15 +849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -866,10 +866,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1814513" y="8786813"/>
-          <a:ext cx="2447925" cy="1714500"/>
-          <a:chOff x="1809750" y="9544050"/>
-          <a:chExt cx="2438400" cy="1714500"/>
+          <a:off x="1809750" y="7548560"/>
+          <a:ext cx="2452689" cy="1428751"/>
+          <a:chOff x="1805005" y="9421584"/>
+          <a:chExt cx="2443145" cy="1836966"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -878,9 +878,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1809750" y="9544050"/>
-            <a:ext cx="0" cy="1333500"/>
+          <a:xfrm flipH="1">
+            <a:off x="1805005" y="9421584"/>
+            <a:ext cx="1" cy="1454267"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -966,13 +966,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1010,13 +1010,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603222</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1054,13 +1054,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603237</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>603237</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1098,13 +1098,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>607483</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>607483</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1142,13 +1142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>618066</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1158,8 +1158,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1817688" y="2690813"/>
-          <a:ext cx="2443691" cy="2667000"/>
+          <a:off x="1817688" y="2119313"/>
+          <a:ext cx="2443691" cy="2476500"/>
           <a:chOff x="1809750" y="3450167"/>
           <a:chExt cx="2427816" cy="2667000"/>
         </a:xfrm>
@@ -1287,13 +1287,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1331,13 +1331,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1347,8 +1347,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7905750" y="7274719"/>
-          <a:ext cx="2452687" cy="3226593"/>
+          <a:off x="7905750" y="6322219"/>
+          <a:ext cx="2452687" cy="2655093"/>
           <a:chOff x="7905750" y="8036719"/>
           <a:chExt cx="2452687" cy="3226593"/>
         </a:xfrm>
@@ -1447,13 +1447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>627630</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>188799</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1463,8 +1463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1821657" y="5941219"/>
-          <a:ext cx="2449286" cy="748393"/>
+          <a:off x="1821657" y="5179219"/>
+          <a:ext cx="2449286" cy="557893"/>
           <a:chOff x="1808389" y="9176657"/>
           <a:chExt cx="2439761" cy="748393"/>
         </a:xfrm>
@@ -1828,10 +1828,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:K65"/>
+  <dimension ref="B3:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K67"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,398 +1839,398 @@
     <col min="1" max="16384" width="18.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="G49" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="F54" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I39" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="7"/>
-      <c r="F59" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E62" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D56:F56"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/miflyrelation.xlsx
+++ b/miflyrelation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>Airports</t>
   </si>
@@ -140,18 +140,12 @@
     <t>0…1</t>
   </si>
   <si>
-    <t>Date_Filed</t>
-  </si>
-  <si>
     <t>Arr_Port</t>
   </si>
   <si>
     <t>Dept_Port</t>
   </si>
   <si>
-    <t>Time_Stamp</t>
-  </si>
-  <si>
     <t>Crew_Num</t>
   </si>
   <si>
@@ -167,7 +161,13 @@
     <t>Reported_FAA</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Arr_Time</t>
+  </si>
+  <si>
+    <t>Dept_Time</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -616,122 +616,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619881</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>604762</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="Group 35"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5477631" y="3357563"/>
-          <a:ext cx="3628194" cy="1238250"/>
-          <a:chOff x="5464069" y="4694464"/>
-          <a:chExt cx="3617830" cy="1428750"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="Straight Connector 30"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5464069" y="4694464"/>
-            <a:ext cx="0" cy="1047750"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="Straight Connector 32"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5468622" y="5742214"/>
-            <a:ext cx="3611760" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="Straight Connector 34"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9081899" y="5742214"/>
-            <a:ext cx="0" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>38</xdr:row>
@@ -1285,166 +1169,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>607219</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10322719" y="6691312"/>
-          <a:ext cx="0" cy="773907"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Group 12"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7905750" y="6322219"/>
-          <a:ext cx="2452687" cy="2655093"/>
-          <a:chOff x="7905750" y="8036719"/>
-          <a:chExt cx="2452687" cy="3226593"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Straight Connector 6"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="7905750" y="9358312"/>
-            <a:ext cx="0" cy="1905000"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="Straight Connector 8"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7905750" y="9358312"/>
-            <a:ext cx="2452687" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="Straight Connector 11"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="10346531" y="8036719"/>
-            <a:ext cx="0" cy="1321593"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>607219</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -1557,6 +1281,762 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10334625" y="5167312"/>
+          <a:ext cx="1202531" cy="1524000"/>
+          <a:chOff x="10334625" y="5167312"/>
+          <a:chExt cx="1202531" cy="1524000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Connector 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10334625" y="5929312"/>
+            <a:ext cx="0" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Connector 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11537156" y="5167312"/>
+            <a:ext cx="0" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Straight Connector 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10334625" y="5929312"/>
+            <a:ext cx="1202531" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7893844" y="7262812"/>
+          <a:ext cx="2440781" cy="1714500"/>
+          <a:chOff x="7893844" y="7262812"/>
+          <a:chExt cx="2440781" cy="1714500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Straight Connector 18"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7893844" y="8024812"/>
+            <a:ext cx="0" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Straight Connector 22"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10334625" y="7262812"/>
+            <a:ext cx="0" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="Straight Connector 25"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7893844" y="8024812"/>
+            <a:ext cx="2440781" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="Group 55"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5441156" y="3357562"/>
+          <a:ext cx="4893469" cy="1238250"/>
+          <a:chOff x="5441156" y="3357562"/>
+          <a:chExt cx="4893469" cy="1238250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="Straight Connector 39"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441156" y="3357562"/>
+            <a:ext cx="0" cy="952500"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="50" name="Straight Connector 49"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5441156" y="4310062"/>
+            <a:ext cx="4893469" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="Straight Connector 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10334625" y="4310062"/>
+            <a:ext cx="0" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631031</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4274344" y="5453062"/>
+          <a:ext cx="2416968" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6691312" y="5453062"/>
+          <a:ext cx="0" cy="2964657"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9120187" y="8417719"/>
+          <a:ext cx="0" cy="1404937"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7905750" y="9834562"/>
+          <a:ext cx="1214437" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="9834562"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6663836" y="8408560"/>
+          <a:ext cx="1113693" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7977187" y="8417719"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520211</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>703384</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Freeform 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7773865" y="8370094"/>
+          <a:ext cx="183173" cy="41214"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 183173"/>
+            <a:gd name="connsiteY0" fmla="*/ 41214 h 41214"/>
+            <a:gd name="connsiteX1" fmla="*/ 58616 w 183173"/>
+            <a:gd name="connsiteY1" fmla="*/ 4579 h 41214"/>
+            <a:gd name="connsiteX2" fmla="*/ 124558 w 183173"/>
+            <a:gd name="connsiteY2" fmla="*/ 4579 h 41214"/>
+            <a:gd name="connsiteX3" fmla="*/ 183173 w 183173"/>
+            <a:gd name="connsiteY3" fmla="*/ 41214 h 41214"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="183173" h="41214">
+              <a:moveTo>
+                <a:pt x="0" y="41214"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="18928" y="25949"/>
+                <a:pt x="37856" y="10685"/>
+                <a:pt x="58616" y="4579"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="79376" y="-1527"/>
+                <a:pt x="103799" y="-1527"/>
+                <a:pt x="124558" y="4579"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="145317" y="10685"/>
+                <a:pt x="164245" y="25949"/>
+                <a:pt x="183173" y="41214"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1830,9 +2310,7 @@
   </sheetPr>
   <dimension ref="B3:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1847,7 +2325,7 @@
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1881,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1968,7 +2446,8 @@
       <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="I24" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1982,7 +2461,8 @@
       <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="E25" s="7"/>
+      <c r="I25" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1991,32 +2471,35 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="J27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2024,7 +2507,7 @@
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2032,51 +2515,33 @@
       <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I34" s="7" t="s">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2084,6 +2549,12 @@
       <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
@@ -2095,16 +2566,28 @@
       <c r="D37" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="I38" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="I39" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" s="7" t="s">
@@ -2168,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
@@ -2189,6 +2672,9 @@
       <c r="F53" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="G53" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D54" s="10" t="s">
@@ -2200,34 +2686,37 @@
       <c r="F54" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="G54" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E56:G56"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
